--- a/Client/Assets/框架.xlsx
+++ b/Client/Assets/框架.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="框架" sheetId="1" r:id="rId1"/>
     <sheet name="URP" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="插件" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>CSharp</t>
   </si>
@@ -145,6 +145,27 @@
   </si>
   <si>
     <t>专门介绍Demo</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>UGUI-Extensions</t>
+  </si>
+  <si>
+    <t>ParticleEffectForUGUI</t>
+  </si>
+  <si>
+    <t>UIEffect</t>
+  </si>
+  <si>
+    <t>Animancer Pro</t>
+  </si>
+  <si>
+    <t>EaseSave</t>
+  </si>
+  <si>
+    <t>Odin</t>
   </si>
 </sst>
 </file>
@@ -152,10 +173,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -167,20 +188,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -219,13 +239,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -250,6 +277,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -274,7 +309,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,20 +326,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,187 +352,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,17 +543,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -560,45 +570,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -622,6 +593,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -630,145 +651,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1179,7 +1200,7 @@
   <sheetPr/>
   <dimension ref="C7:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
@@ -1414,14 +1435,50 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="C5:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="5" spans="3:3">
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Client/Assets/框架.xlsx
+++ b/Client/Assets/框架.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>CSharp</t>
   </si>
@@ -159,6 +159,9 @@
     <t>UIEffect</t>
   </si>
   <si>
+    <t>Profiler-UI</t>
+  </si>
+  <si>
     <t>Animancer Pro</t>
   </si>
   <si>
@@ -166,6 +169,15 @@
   </si>
   <si>
     <t>Odin</t>
+  </si>
+  <si>
+    <t>DoTween</t>
+  </si>
+  <si>
+    <t>评估好使不</t>
+  </si>
+  <si>
+    <t>EasyTouch</t>
   </si>
 </sst>
 </file>
@@ -174,9 +186,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -188,21 +200,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,8 +242,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,15 +252,77 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,69 +342,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -352,13 +364,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,7 +532,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,157 +544,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,24 +599,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,19 +635,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,7 +663,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -663,133 +675,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1435,13 +1447,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C5:D14"/>
+  <dimension ref="C5:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <sheetData>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
@@ -1463,19 +1475,37 @@
         <v>46</v>
       </c>
     </row>
+    <row r="9" spans="4:4">
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/框架.xlsx
+++ b/Client/Assets/框架.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\FreeFramework\Client\Assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="框架" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>CSharp</t>
   </si>
@@ -178,19 +183,21 @@
   </si>
   <si>
     <t>EasyTouch</t>
+  </si>
+  <si>
+    <t>FindRef2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PoolManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,151 +206,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,194 +231,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -557,251 +240,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -816,68 +257,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -899,7 +296,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1204,29 +601,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:K37"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:3">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="4:10">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.15">
       <c r="D8" t="s">
         <v>1</v>
       </c>
@@ -1234,7 +631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="5:11">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E9" t="s">
         <v>3</v>
       </c>
@@ -1242,7 +639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="5:11">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1250,27 +647,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="5:5">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="5:5">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="5:5">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="5:5">
+    <row r="14" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="5:10">
+    <row r="15" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1281,7 +678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="5:11">
+    <row r="16" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E16" t="s">
         <v>14</v>
       </c>
@@ -1289,17 +686,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="11:11">
+    <row r="17" spans="4:11" x14ac:dyDescent="0.15">
       <c r="K17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="11:11">
+    <row r="18" spans="4:11" x14ac:dyDescent="0.15">
       <c r="K18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="4:11">
+    <row r="19" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D19" t="s">
         <v>18</v>
       </c>
@@ -1307,12 +704,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="5:5">
+    <row r="20" spans="4:11" x14ac:dyDescent="0.15">
       <c r="E20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="5:11">
+    <row r="21" spans="4:11" x14ac:dyDescent="0.15">
       <c r="E21" t="s">
         <v>21</v>
       </c>
@@ -1320,7 +717,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="5:11">
+    <row r="22" spans="4:11" x14ac:dyDescent="0.15">
       <c r="E22" t="s">
         <v>23</v>
       </c>
@@ -1328,7 +725,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="5:6">
+    <row r="23" spans="4:11" x14ac:dyDescent="0.15">
       <c r="E23" t="s">
         <v>25</v>
       </c>
@@ -1336,32 +733,32 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="6:6">
+    <row r="24" spans="4:11" x14ac:dyDescent="0.15">
       <c r="F24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="6:6">
+    <row r="25" spans="4:11" x14ac:dyDescent="0.15">
       <c r="F25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="4:4">
+    <row r="28" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="5:5">
+    <row r="29" spans="4:11" x14ac:dyDescent="0.15">
       <c r="E29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="5:5">
+    <row r="30" spans="4:11" x14ac:dyDescent="0.15">
       <c r="E30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="5:6">
+    <row r="31" spans="4:11" x14ac:dyDescent="0.15">
       <c r="E31" t="s">
         <v>32</v>
       </c>
@@ -1369,133 +766,138 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="6:6">
+    <row r="32" spans="4:11" x14ac:dyDescent="0.15">
       <c r="F32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="5:5">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="5:5">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="5:5">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="5:5">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="5:5">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E37" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="16:16">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.15">
       <c r="P6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="16:16">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.15">
       <c r="P7" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P7" r:id="rId2" display="专门介绍Demo" tooltip="https://blog.unity.com/technology/achieve-beautiful-scalable-and-performant-graphics-with-the-universal-render-pipeline"/>
-    <hyperlink ref="P6" r:id="rId3" display="Boat Attack Demo" tooltip="https://github.com/Verasl/BoatAttack"/>
+    <hyperlink ref="P7" r:id="rId1" tooltip="https://blog.unity.com/technology/achieve-beautiful-scalable-and-performant-graphics-with-the-universal-render-pipeline"/>
+    <hyperlink ref="P6" r:id="rId2" tooltip="https://github.com/Verasl/BoatAttack"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="C5:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="5" spans="3:3">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="4:4">
-      <c r="D6" t="s">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D6" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="4:4">
-      <c r="D7" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D7" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="4:4">
-      <c r="D8" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D8" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="4:4">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
-      <c r="C12" t="s">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C12" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="3:3">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
         <v>51</v>
       </c>
@@ -1503,14 +905,24 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
         <v>53</v>
       </c>
     </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>